--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F3331-60F1-45CE-AAE3-C9CFC4D922EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B432DA-D204-4A8C-9D2E-D93E45E04275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="91">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -129,9 +129,6 @@
     <t>employeetest</t>
   </si>
   <si>
-    <t>JiViewsEmployeeTest</t>
-  </si>
-  <si>
     <t>CFB</t>
   </si>
   <si>
@@ -289,6 +286,27 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>WorkloadPlanner</t>
+  </si>
+  <si>
+    <t>createVesselSchedule</t>
+  </si>
+  <si>
+    <t>scheduleCranes</t>
+  </si>
+  <si>
+    <t>planningSignoff</t>
+  </si>
+  <si>
+    <t>JiViewsSystemDefinitionsTest</t>
+  </si>
+  <si>
+    <t>JiViewsEmployeeAdministrationTest</t>
+  </si>
+  <si>
+    <t>VerifyTerminateEmployee</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -922,10 +942,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -991,19 +1011,19 @@
         <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.3">
@@ -1011,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1043,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1075,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -1113,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -1129,7 +1149,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>25</v>
@@ -1153,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>29</v>
@@ -1169,7 +1189,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>25</v>
@@ -1181,25 +1201,25 @@
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1207,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1" t="s">
@@ -1220,44 +1240,44 @@
         <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1">
         <v>12345</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7">
         <v>30397</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="1">
         <v>123456</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1265,10 +1285,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
@@ -1278,44 +1298,44 @@
         <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1">
         <v>12345</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7">
         <v>30397</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1">
         <v>123456</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1323,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
@@ -1336,44 +1356,44 @@
         <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1">
         <v>12345</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="7">
         <v>30397</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1">
         <v>123456</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1381,10 +1401,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
@@ -1394,44 +1414,44 @@
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1">
         <v>12345</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7">
         <v>30397</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1">
         <v>123456</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1439,10 +1459,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="1" t="s">
@@ -1452,44 +1472,44 @@
         <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1">
         <v>12345</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1">
         <v>123456</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1497,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1" t="s">
@@ -1510,44 +1530,44 @@
         <v>13</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7">
         <v>30397</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" s="1">
         <v>123456</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1555,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="1" t="s">
@@ -1568,44 +1588,44 @@
         <v>13</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1">
         <v>12345</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7">
         <v>30397</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="1">
         <v>123456</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1613,10 +1633,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1" t="s">
@@ -1626,44 +1646,44 @@
         <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1">
         <v>12345</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7">
         <v>30397</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="1">
         <v>123456</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1671,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
@@ -1684,46 +1704,46 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7">
         <v>30397</v>
       </c>
       <c r="L15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1731,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1" t="s">
@@ -1744,46 +1764,46 @@
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1">
         <v>12345</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7">
         <v>30397</v>
       </c>
       <c r="L16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1791,10 +1811,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1" t="s">
@@ -1804,44 +1824,44 @@
         <v>13</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="1">
         <v>12345</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7">
         <v>30397</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1">
         <v>123456</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1849,10 +1869,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="1" t="s">
@@ -1862,44 +1882,44 @@
         <v>13</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7">
         <v>30397</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="1">
         <v>123456</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1907,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="1" t="s">
@@ -1920,44 +1940,44 @@
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1">
         <v>12345</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7">
         <v>30397</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N19" s="1">
         <v>123456</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -1965,10 +1985,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
@@ -1978,44 +1998,44 @@
         <v>13</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" s="1">
         <v>12345</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="7">
         <v>30397</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1">
         <v>123456</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -2023,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="1" t="s">
@@ -2036,44 +2056,44 @@
         <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7">
         <v>30397</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="1">
         <v>123456</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -2081,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="1" t="s">
@@ -2094,55 +2114,55 @@
         <v>13</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7">
         <v>30397</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="1">
         <v>123456</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="1" t="s">
@@ -2152,55 +2172,55 @@
         <v>13</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7">
         <v>30397</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23" s="1">
         <v>123456</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
@@ -2210,44 +2230,44 @@
         <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="7">
         <v>30397</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" s="1">
         <v>123456</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -2255,10 +2275,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="1" t="s">
@@ -2268,55 +2288,55 @@
         <v>13</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" s="7">
         <v>30397</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" s="1">
         <v>123456</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1" t="s">
@@ -2326,44 +2346,44 @@
         <v>13</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" s="7">
         <v>30397</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" s="1">
         <v>123456</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -2371,10 +2391,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="1" t="s">
@@ -2384,55 +2404,55 @@
         <v>13</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7">
         <v>30397</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" s="1">
         <v>123456</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="1" t="s">
@@ -2442,55 +2462,55 @@
         <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="7">
         <v>30397</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N28" s="1">
         <v>123456</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="1" t="s">
@@ -2500,55 +2520,55 @@
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K29" s="7">
         <v>30397</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29" s="1">
         <v>123456</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1" t="s">
@@ -2558,55 +2578,55 @@
         <v>13</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7">
         <v>30397</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" s="1">
         <v>123456</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
@@ -2616,55 +2636,55 @@
         <v>13</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="7">
         <v>30397</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="1">
         <v>123456</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="1" t="s">
@@ -2674,55 +2694,55 @@
         <v>13</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="7">
         <v>30397</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" s="1">
         <v>123456</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1" t="s">
@@ -2732,44 +2752,44 @@
         <v>13</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7">
         <v>30397</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N33" s="1">
         <v>123456</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -2777,10 +2797,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1" t="s">
@@ -2790,55 +2810,55 @@
         <v>13</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="7">
         <v>30397</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1" t="s">
@@ -2848,55 +2868,55 @@
         <v>13</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="7">
         <v>30397</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N35" s="1">
         <v>123456</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="1" t="s">
@@ -2906,55 +2926,55 @@
         <v>13</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" s="7">
         <v>30397</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N36" s="1">
         <v>123456</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="1" t="s">
@@ -2964,44 +2984,276 @@
         <v>13</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" s="7">
         <v>30397</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37" s="1">
         <v>123456</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B432DA-D204-4A8C-9D2E-D93E45E04275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC12B0-CF85-47AE-BD10-14D6D9410D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,9 +944,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1060,7 +1058,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -1092,7 +1090,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>88</v>
@@ -1130,7 +1128,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
@@ -1170,7 +1168,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>88</v>
@@ -1282,7 +1280,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>89</v>
@@ -1340,7 +1338,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>89</v>
@@ -1398,7 +1396,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>89</v>
@@ -1456,7 +1454,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>89</v>
@@ -1514,7 +1512,7 @@
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>89</v>
@@ -1572,7 +1570,7 @@
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
@@ -1630,7 +1628,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>89</v>
@@ -1688,7 +1686,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>89</v>
@@ -1748,7 +1746,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
@@ -1808,7 +1806,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>89</v>
@@ -1866,7 +1864,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>89</v>
@@ -1924,7 +1922,7 @@
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>89</v>
@@ -1982,7 +1980,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>89</v>
@@ -2040,7 +2038,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>89</v>
@@ -2098,7 +2096,7 @@
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>89</v>
@@ -2156,7 +2154,7 @@
     </row>
     <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>68</v>
@@ -2214,7 +2212,7 @@
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>68</v>
@@ -2446,7 +2444,7 @@
     </row>
     <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>68</v>
@@ -2504,7 +2502,7 @@
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>68</v>
@@ -2562,7 +2560,7 @@
     </row>
     <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>68</v>
@@ -2620,7 +2618,7 @@
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>68</v>
@@ -2678,7 +2676,7 @@
     </row>
     <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>68</v>
@@ -2736,7 +2734,7 @@
     </row>
     <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>68</v>
@@ -2852,7 +2850,7 @@
     </row>
     <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>68</v>
@@ -2910,7 +2908,7 @@
     </row>
     <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>68</v>
@@ -2968,7 +2966,7 @@
     </row>
     <row r="37" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>68</v>
@@ -3026,7 +3024,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>89</v>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC12B0-CF85-47AE-BD10-14D6D9410D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A83201-4A7E-4DB2-86C3-6D5D89144F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>88</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>88</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>89</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>89</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>89</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>89</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>89</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>89</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>89</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>89</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>89</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>89</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>89</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>89</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>89</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="26" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>89</v>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A83201-4A7E-4DB2-86C3-6D5D89144F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD3442A-BAB4-4119-9CA5-E80A1AFA0307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>68</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>68</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="37" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>68</v>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD3442A-BAB4-4119-9CA5-E80A1AFA0307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235A4BEA-E52C-4018-8998-3F8EC0F8AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235A4BEA-E52C-4018-8998-3F8EC0F8AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5643D52-2C41-4C39-9A53-3405D44AC679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>88</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>88</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>89</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>89</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>89</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>89</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>89</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>89</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>89</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>89</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>89</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>89</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>89</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>89</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>89</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>68</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="26" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>68</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>68</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>68</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>89</v>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5643D52-2C41-4C39-9A53-3405D44AC679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C12597-5088-4F7D-9B2E-BF5CD2E96F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Modules" sheetId="12" r:id="rId1"/>
     <sheet name="employeetest" sheetId="11" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">employeetest!$A$1:$T$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="93">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -307,6 +310,12 @@
   </si>
   <si>
     <t>VerifyTerminateEmployee</t>
+  </si>
+  <si>
+    <t>TimeAndAttendanceTest</t>
+  </si>
+  <si>
+    <t>attendaceRecon</t>
   </si>
 </sst>
 </file>
@@ -942,9 +951,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1058,7 +1069,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -1090,7 +1101,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>88</v>
@@ -1128,7 +1139,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
@@ -1168,7 +1179,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>88</v>
@@ -1280,7 +1291,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>89</v>
@@ -1338,7 +1349,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>89</v>
@@ -1396,7 +1407,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>89</v>
@@ -1454,7 +1465,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>89</v>
@@ -1512,7 +1523,7 @@
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>89</v>
@@ -1570,7 +1581,7 @@
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
@@ -1628,7 +1639,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>89</v>
@@ -1686,7 +1697,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>89</v>
@@ -1746,7 +1757,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
@@ -1806,7 +1817,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>89</v>
@@ -1864,7 +1875,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>89</v>
@@ -1922,7 +1933,7 @@
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>89</v>
@@ -1980,7 +1991,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>89</v>
@@ -2038,7 +2049,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>89</v>
@@ -2096,7 +2107,7 @@
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>89</v>
@@ -2157,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="1" t="s">
@@ -2170,10 +2181,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>33</v>
@@ -2188,8 +2199,8 @@
       <c r="M23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="1">
-        <v>123456</v>
+      <c r="N23" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>40</v>
@@ -2212,13 +2223,13 @@
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
@@ -2270,13 +2281,13 @@
     </row>
     <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="1" t="s">
@@ -2334,7 +2345,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1" t="s">
@@ -2386,13 +2397,13 @@
     </row>
     <row r="27" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="1" t="s">
@@ -2444,13 +2455,13 @@
     </row>
     <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="1" t="s">
@@ -2502,13 +2513,13 @@
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="1" t="s">
@@ -2560,13 +2571,13 @@
     </row>
     <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1" t="s">
@@ -2618,13 +2629,13 @@
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
@@ -2682,7 +2693,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="1" t="s">
@@ -2740,7 +2751,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1" t="s">
@@ -2795,10 +2806,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1" t="s">
@@ -2808,10 +2819,10 @@
         <v>13</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>33</v>
@@ -2826,8 +2837,8 @@
       <c r="M34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>83</v>
+      <c r="N34" s="1">
+        <v>123456</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>40</v>
@@ -3024,7 +3035,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>89</v>
@@ -3082,7 +3093,7 @@
     </row>
     <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>84</v>
@@ -3140,7 +3151,7 @@
     </row>
     <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>84</v>
@@ -3198,7 +3209,7 @@
     </row>
     <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>84</v>
@@ -3251,6 +3262,64 @@
         <v>31</v>
       </c>
       <c r="T41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C12597-5088-4F7D-9B2E-BF5CD2E96F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2697EB-F80F-4CCE-A8F7-7DF5C01AAF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="95">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -222,9 +222,6 @@
     <t>CFBA</t>
   </si>
   <si>
-    <t>10048</t>
-  </si>
-  <si>
     <t>10049</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>22-03-1983</t>
   </si>
   <si>
-    <t>000-16-9475</t>
-  </si>
-  <si>
     <t>VerifyLoginwithNewEmployee</t>
   </si>
   <si>
@@ -316,6 +310,18 @@
   </si>
   <si>
     <t>attendaceRecon</t>
+  </si>
+  <si>
+    <t>10734302</t>
+  </si>
+  <si>
+    <t>EmployeeSelfServiceTest</t>
+  </si>
+  <si>
+    <t>Emp10734302$2</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceTest</t>
   </si>
 </sst>
 </file>
@@ -951,10 +957,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1072,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1104,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -1142,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -1182,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>29</v>
@@ -1236,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>32</v>
@@ -1249,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1">
         <v>12345</v>
@@ -1294,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>41</v>
@@ -1307,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1">
         <v>12345</v>
@@ -1352,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>42</v>
@@ -1365,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1">
         <v>12345</v>
@@ -1410,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>43</v>
@@ -1468,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>45</v>
@@ -1481,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1">
         <v>12345</v>
@@ -1493,7 +1499,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
@@ -1526,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>46</v>
@@ -1539,10 +1545,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>33</v>
@@ -1584,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>48</v>
@@ -1597,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1">
         <v>12345</v>
@@ -1642,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>49</v>
@@ -1655,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1">
         <v>12345</v>
@@ -1700,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>50</v>
@@ -1713,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>47</v>
@@ -1728,13 +1734,13 @@
         <v>30397</v>
       </c>
       <c r="L15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>40</v>
@@ -1760,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>51</v>
@@ -1773,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H16" s="1">
         <v>12345</v>
@@ -1788,13 +1794,13 @@
         <v>30397</v>
       </c>
       <c r="L16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>40</v>
@@ -1820,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>52</v>
@@ -1833,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1">
         <v>12345</v>
@@ -1878,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>53</v>
@@ -1891,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>47</v>
@@ -1936,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>54</v>
@@ -1949,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1">
         <v>12345</v>
@@ -1994,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>55</v>
@@ -2007,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1">
         <v>12345</v>
@@ -2052,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>56</v>
@@ -2065,7 +2071,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>47</v>
@@ -2110,10 +2116,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="1" t="s">
@@ -2123,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>47</v>
@@ -2168,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="1" t="s">
@@ -2181,10 +2187,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>33</v>
@@ -2200,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>40</v>
@@ -2226,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
@@ -2239,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>47</v>
@@ -2281,13 +2287,13 @@
     </row>
     <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="1" t="s">
@@ -2297,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>47</v>
@@ -2342,10 +2348,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1" t="s">
@@ -2355,7 +2361,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>47</v>
@@ -2397,13 +2403,13 @@
     </row>
     <row r="27" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="1" t="s">
@@ -2413,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>47</v>
@@ -2458,10 +2464,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="1" t="s">
@@ -2471,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>47</v>
@@ -2516,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="1" t="s">
@@ -2529,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>47</v>
@@ -2574,10 +2580,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1" t="s">
@@ -2587,7 +2593,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>47</v>
@@ -2632,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
@@ -2645,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>47</v>
@@ -2690,10 +2696,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="1" t="s">
@@ -2703,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>47</v>
@@ -2748,10 +2754,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1" t="s">
@@ -2761,7 +2767,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>47</v>
@@ -2806,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1" t="s">
@@ -2819,7 +2825,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>47</v>
@@ -2864,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1" t="s">
@@ -2877,7 +2883,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>47</v>
@@ -2922,10 +2928,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="1" t="s">
@@ -2935,7 +2941,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>47</v>
@@ -2980,10 +2986,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="1" t="s">
@@ -2993,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>47</v>
@@ -3038,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="1" t="s">
@@ -3051,7 +3057,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>47</v>
@@ -3096,10 +3102,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="1" t="s">
@@ -3109,7 +3115,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>47</v>
@@ -3154,10 +3160,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1" t="s">
@@ -3167,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>47</v>
@@ -3212,10 +3218,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="1" t="s">
@@ -3225,7 +3231,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>47</v>
@@ -3270,10 +3276,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="1" t="s">
@@ -3283,7 +3289,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>47</v>
@@ -3320,6 +3326,64 @@
         <v>31</v>
       </c>
       <c r="T42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2697EB-F80F-4CCE-A8F7-7DF5C01AAF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD3EB33-A53F-4D4E-BF46-70490BB1F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="106">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -321,7 +321,40 @@
     <t>Emp10734302$2</t>
   </si>
   <si>
-    <t>employeeSelfServiceTest</t>
+    <t>employeeSelfServiceEmployeeTest</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceAdminTest</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceApplyLeave</t>
+  </si>
+  <si>
+    <t>10176007</t>
+  </si>
+  <si>
+    <t>Emp10176007$2</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceRejectLeave</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Emp1001$2</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceApproveLeave</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceApplyTimeOff</t>
+  </si>
+  <si>
+    <t>leaveBalanceAfterRejection</t>
+  </si>
+  <si>
+    <t>leaveBalanceAfterApprove</t>
   </si>
 </sst>
 </file>
@@ -957,10 +990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1076,7 @@
     </row>
     <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>86</v>
@@ -1075,7 +1108,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>86</v>
@@ -1107,7 +1140,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>86</v>
@@ -1145,7 +1178,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>86</v>
@@ -1185,7 +1218,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>86</v>
@@ -1239,7 +1272,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>87</v>
@@ -1297,7 +1330,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>87</v>
@@ -1355,7 +1388,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>87</v>
@@ -1413,7 +1446,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>87</v>
@@ -1471,7 +1504,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>87</v>
@@ -1529,7 +1562,7 @@
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>87</v>
@@ -1587,7 +1620,7 @@
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>87</v>
@@ -1645,7 +1678,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>87</v>
@@ -1703,7 +1736,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>87</v>
@@ -1763,7 +1796,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>87</v>
@@ -1823,7 +1856,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>87</v>
@@ -1881,7 +1914,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>87</v>
@@ -1939,7 +1972,7 @@
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>87</v>
@@ -1997,7 +2030,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>87</v>
@@ -2055,7 +2088,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>87</v>
@@ -2113,7 +2146,7 @@
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>87</v>
@@ -2171,7 +2204,7 @@
     </row>
     <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>87</v>
@@ -2229,7 +2262,7 @@
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
@@ -2519,7 +2552,7 @@
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>66</v>
@@ -2577,7 +2610,7 @@
     </row>
     <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>66</v>
@@ -2635,7 +2668,7 @@
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>66</v>
@@ -2693,7 +2726,7 @@
     </row>
     <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
@@ -2751,7 +2784,7 @@
     </row>
     <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2809,7 +2842,7 @@
     </row>
     <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -3041,7 +3074,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>87</v>
@@ -3099,7 +3132,7 @@
     </row>
     <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>82</v>
@@ -3157,7 +3190,7 @@
     </row>
     <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>82</v>
@@ -3215,7 +3248,7 @@
     </row>
     <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>82</v>
@@ -3273,7 +3306,7 @@
     </row>
     <row r="42" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>89</v>
@@ -3384,6 +3417,412 @@
         <v>31</v>
       </c>
       <c r="T43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD3EB33-A53F-4D4E-BF46-70490BB1F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AC8DD-792C-471E-9873-519342DF3AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,9 +992,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1076,7 +1074,7 @@
     </row>
     <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>86</v>
@@ -1108,7 +1106,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>86</v>
@@ -1140,7 +1138,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>86</v>
@@ -1178,7 +1176,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>86</v>
@@ -1218,7 +1216,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>86</v>
@@ -1272,7 +1270,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>87</v>
@@ -1330,7 +1328,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>87</v>
@@ -1388,7 +1386,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>87</v>
@@ -1446,7 +1444,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>87</v>
@@ -1504,7 +1502,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>87</v>
@@ -1562,7 +1560,7 @@
     </row>
     <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>87</v>
@@ -1620,7 +1618,7 @@
     </row>
     <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>87</v>
@@ -1678,7 +1676,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>87</v>
@@ -1736,7 +1734,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>87</v>
@@ -1796,7 +1794,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>87</v>
@@ -1856,7 +1854,7 @@
     </row>
     <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>87</v>
@@ -1914,7 +1912,7 @@
     </row>
     <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>87</v>
@@ -1972,7 +1970,7 @@
     </row>
     <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>87</v>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>87</v>
@@ -2088,7 +2086,7 @@
     </row>
     <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>87</v>
@@ -2146,7 +2144,7 @@
     </row>
     <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>87</v>
@@ -2204,7 +2202,7 @@
     </row>
     <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>87</v>
@@ -2262,7 +2260,7 @@
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
@@ -2494,7 +2492,7 @@
     </row>
     <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>66</v>
@@ -2552,7 +2550,7 @@
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>66</v>
@@ -2784,7 +2782,7 @@
     </row>
     <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2842,7 +2840,7 @@
     </row>
     <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -3074,7 +3072,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>87</v>
@@ -3132,7 +3130,7 @@
     </row>
     <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>82</v>
@@ -3190,7 +3188,7 @@
     </row>
     <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>82</v>
@@ -3248,7 +3246,7 @@
     </row>
     <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>82</v>
@@ -3306,7 +3304,7 @@
     </row>
     <row r="42" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>89</v>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AC8DD-792C-471E-9873-519342DF3AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE587D3-53F3-4C1C-B715-6B2516617F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="109">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -327,9 +327,6 @@
     <t>employeeSelfServiceAdminTest</t>
   </si>
   <si>
-    <t>employeeSelfServiceApplyLeave</t>
-  </si>
-  <si>
     <t>10176007</t>
   </si>
   <si>
@@ -355,6 +352,18 @@
   </si>
   <si>
     <t>leaveBalanceAfterApprove</t>
+  </si>
+  <si>
+    <t>HSSEPlanner</t>
+  </si>
+  <si>
+    <t>createHSSEPlanning</t>
+  </si>
+  <si>
+    <t>10003749</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceApplyAnnualLeave</t>
   </si>
 </sst>
 </file>
@@ -990,9 +999,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1986,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1">
         <v>12345</v>
@@ -2102,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>47</v>
@@ -2492,7 +2503,7 @@
     </row>
     <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>66</v>
@@ -2666,7 +2677,7 @@
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>66</v>
@@ -2724,7 +2735,7 @@
     </row>
     <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
@@ -2898,7 +2909,7 @@
     </row>
     <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>66</v>
@@ -2956,7 +2967,7 @@
     </row>
     <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>66</v>
@@ -3484,14 +3495,14 @@
         <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>68</v>
@@ -3542,14 +3553,14 @@
         <v>92</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>68</v>
@@ -3600,14 +3611,14 @@
         <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>68</v>
@@ -3658,14 +3669,14 @@
         <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>68</v>
@@ -3716,14 +3727,14 @@
         <v>92</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>68</v>
@@ -3774,14 +3785,14 @@
         <v>92</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>68</v>
@@ -3821,6 +3832,122 @@
         <v>31</v>
       </c>
       <c r="T50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE587D3-53F3-4C1C-B715-6B2516617F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01207512-C348-41D7-8C42-15F35EB47EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="111">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -363,7 +363,13 @@
     <t>10003749</t>
   </si>
   <si>
-    <t>employeeSelfServiceApplyAnnualLeave</t>
+    <t>employeeSelfServiceApplyLeave</t>
+  </si>
+  <si>
+    <t>employeeSelfServiceApplyLeaveSecondTime</t>
+  </si>
+  <si>
+    <t>createHSSEPlanningAlreadyDeployedShift</t>
   </si>
 </sst>
 </file>
@@ -999,11 +1005,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2329,7 +2333,7 @@
     </row>
     <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>66</v>
@@ -2677,7 +2681,7 @@
     </row>
     <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>66</v>
@@ -2735,7 +2739,7 @@
     </row>
     <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
@@ -2909,7 +2913,7 @@
     </row>
     <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>66</v>
@@ -2967,7 +2971,7 @@
     </row>
     <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>66</v>
@@ -3669,7 +3673,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
@@ -3901,7 +3905,7 @@
         <v>105</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
@@ -3948,6 +3952,64 @@
         <v>31</v>
       </c>
       <c r="T52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01207512-C348-41D7-8C42-15F35EB47EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F26D9F-00C6-441F-96FC-6422A511009E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,7 +1007,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F26D9F-00C6-441F-96FC-6422A511009E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D324DA-47AA-4DE6-8565-2DC72885E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="115">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>createHSSEPlanningAlreadyDeployedShift</t>
+  </si>
+  <si>
+    <t>VerifyHSSEFinalBookingReport</t>
+  </si>
+  <si>
+    <t>VerifyRevokeSignOff</t>
+  </si>
+  <si>
+    <t>VerifyDeployment</t>
+  </si>
+  <si>
+    <t>VerifyBroadcast</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1017,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3901,13 +3913,13 @@
     </row>
     <row r="52" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
@@ -3959,13 +3971,13 @@
     </row>
     <row r="53" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="1" t="s">
@@ -4012,6 +4024,238 @@
         <v>31</v>
       </c>
       <c r="T53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D324DA-47AA-4DE6-8565-2DC72885E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF6066-C5FA-4E2C-9098-043FA27BF4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="127">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -382,6 +382,42 @@
   </si>
   <si>
     <t>VerifyBroadcast</t>
+  </si>
+  <si>
+    <t>VerifyDateRangeDeployment</t>
+  </si>
+  <si>
+    <t>VerifyDeAllocate</t>
+  </si>
+  <si>
+    <t>VerifyDateRangeDeAllocate</t>
+  </si>
+  <si>
+    <t>VerifyHSSEFinalBookingAssingStandByEmployee</t>
+  </si>
+  <si>
+    <t>VerifyHSSEFinalBookingAddshift</t>
+  </si>
+  <si>
+    <t>RTGPlanner</t>
+  </si>
+  <si>
+    <t>VerifyCreateRTGPlanning</t>
+  </si>
+  <si>
+    <t>VerifyRTGPlanningFinalBookingReport</t>
+  </si>
+  <si>
+    <t>VerifyCreateRTGPlanningwithSingOff</t>
+  </si>
+  <si>
+    <t>VerifyRTGPlanningFinalBookingStandByEmployee</t>
+  </si>
+  <si>
+    <t>PMPlanner</t>
+  </si>
+  <si>
+    <t>VerifyCreatePMPlanning</t>
   </si>
 </sst>
 </file>
@@ -1017,16 +1053,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
@@ -1135,7 +1171,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>86</v>
@@ -1167,7 +1203,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>86</v>
@@ -1205,7 +1241,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>86</v>
@@ -1245,7 +1281,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>86</v>
@@ -2231,7 +2267,7 @@
     </row>
     <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>87</v>
@@ -2289,7 +2325,7 @@
     </row>
     <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
@@ -2347,7 +2383,7 @@
     </row>
     <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>66</v>
@@ -2579,7 +2615,7 @@
     </row>
     <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>66</v>
@@ -2811,7 +2847,7 @@
     </row>
     <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2869,7 +2905,7 @@
     </row>
     <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -3159,7 +3195,7 @@
     </row>
     <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>82</v>
@@ -3217,7 +3253,7 @@
     </row>
     <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>82</v>
@@ -3275,7 +3311,7 @@
     </row>
     <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>82</v>
@@ -3333,7 +3369,7 @@
     </row>
     <row r="42" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>89</v>
@@ -3391,7 +3427,7 @@
     </row>
     <row r="43" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>92</v>
@@ -3449,7 +3485,7 @@
     </row>
     <row r="44" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>92</v>
@@ -3507,7 +3543,7 @@
     </row>
     <row r="45" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>92</v>
@@ -3565,7 +3601,7 @@
     </row>
     <row r="46" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>92</v>
@@ -3623,7 +3659,7 @@
     </row>
     <row r="47" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>92</v>
@@ -3681,7 +3717,7 @@
     </row>
     <row r="48" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>92</v>
@@ -3739,7 +3775,7 @@
     </row>
     <row r="49" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>92</v>
@@ -3797,7 +3833,7 @@
     </row>
     <row r="50" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>92</v>
@@ -3855,7 +3891,7 @@
     </row>
     <row r="51" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>92</v>
@@ -4093,7 +4129,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="1" t="s">
@@ -4151,7 +4187,7 @@
         <v>105</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="1" t="s">
@@ -4209,7 +4245,7 @@
         <v>105</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="1" t="s">
@@ -4256,6 +4292,818 @@
         <v>31</v>
       </c>
       <c r="T57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K61" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K62" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T71" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF6066-C5FA-4E2C-9098-043FA27BF4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72525EF-DA1E-4DB4-9119-ECBA230A2672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="137">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -318,21 +318,12 @@
     <t>EmployeeSelfServiceTest</t>
   </si>
   <si>
-    <t>Emp10734302$2</t>
-  </si>
-  <si>
     <t>employeeSelfServiceEmployeeTest</t>
   </si>
   <si>
     <t>employeeSelfServiceAdminTest</t>
   </si>
   <si>
-    <t>10176007</t>
-  </si>
-  <si>
-    <t>Emp10176007$2</t>
-  </si>
-  <si>
     <t>employeeSelfServiceRejectLeave</t>
   </si>
   <si>
@@ -418,6 +409,45 @@
   </si>
   <si>
     <t>VerifyCreatePMPlanning</t>
+  </si>
+  <si>
+    <t>StackersPlanner</t>
+  </si>
+  <si>
+    <t>VerifyCreateStackersPlanning</t>
+  </si>
+  <si>
+    <t>VerifyStackersPlanningFinalBookingReport</t>
+  </si>
+  <si>
+    <t>VerifyCreateStackersPlanningwithSingOff</t>
+  </si>
+  <si>
+    <t>VerifyStackersPlanningFinalBookingStandByEmployee</t>
+  </si>
+  <si>
+    <t>VerifyRTGPlanningFinalBookingAddshift</t>
+  </si>
+  <si>
+    <t>VerifyCreateLashingPlanningConeMan</t>
+  </si>
+  <si>
+    <t>LashingPlanner</t>
+  </si>
+  <si>
+    <t>0000561</t>
+  </si>
+  <si>
+    <t>Emp0000561$2</t>
+  </si>
+  <si>
+    <t>EFDPlanningTest</t>
+  </si>
+  <si>
+    <t>VerifyCreateEFDPlanning</t>
+  </si>
+  <si>
+    <t>10114678</t>
   </si>
 </sst>
 </file>
@@ -1053,11 +1083,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1139,7 +1167,7 @@
     </row>
     <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>86</v>
@@ -1409,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H8" s="1">
         <v>12345</v>
@@ -2051,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="1">
         <v>12345</v>
@@ -2167,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>47</v>
@@ -2267,7 +2295,7 @@
     </row>
     <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>87</v>
@@ -3137,7 +3165,7 @@
     </row>
     <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>87</v>
@@ -3433,14 +3461,14 @@
         <v>92</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>68</v>
@@ -3491,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="1" t="s">
@@ -3549,14 +3577,14 @@
         <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>68</v>
@@ -3607,14 +3635,14 @@
         <v>92</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>68</v>
@@ -3665,14 +3693,14 @@
         <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>68</v>
@@ -3723,14 +3751,14 @@
         <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>68</v>
@@ -3781,14 +3809,14 @@
         <v>92</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>68</v>
@@ -3839,14 +3867,14 @@
         <v>92</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>68</v>
@@ -3897,14 +3925,14 @@
         <v>92</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="8" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>68</v>
@@ -3952,10 +3980,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
@@ -4010,10 +4038,10 @@
         <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="1" t="s">
@@ -4068,10 +4096,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="1" t="s">
@@ -4126,10 +4154,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="1" t="s">
@@ -4184,10 +4212,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="1" t="s">
@@ -4242,10 +4270,10 @@
         <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="1" t="s">
@@ -4300,10 +4328,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="1" t="s">
@@ -4358,10 +4386,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="1" t="s">
@@ -4416,10 +4444,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="1" t="s">
@@ -4474,10 +4502,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="1" t="s">
@@ -4532,10 +4560,10 @@
         <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="1" t="s">
@@ -4587,13 +4615,13 @@
     </row>
     <row r="63" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="1" t="s">
@@ -4645,13 +4673,13 @@
     </row>
     <row r="64" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="1" t="s">
@@ -4703,13 +4731,13 @@
     </row>
     <row r="65" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="1" t="s">
@@ -4761,13 +4789,13 @@
     </row>
     <row r="66" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="1" t="s">
@@ -4819,13 +4847,13 @@
     </row>
     <row r="67" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="1" t="s">
@@ -4877,13 +4905,13 @@
     </row>
     <row r="68" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="1" t="s">
@@ -4935,13 +4963,13 @@
     </row>
     <row r="69" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="1" t="s">
@@ -4993,13 +5021,13 @@
     </row>
     <row r="70" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="1" t="s">
@@ -5051,13 +5079,13 @@
     </row>
     <row r="71" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="1" t="s">
@@ -5104,6 +5132,818 @@
         <v>31</v>
       </c>
       <c r="T71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N74" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N77" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K81" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N84" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="7">
+        <v>30397</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N85" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T85" s="1" t="s">
         <v>31</v>
       </c>
     </row>
